--- a/assets/file/Template_Inventaris_Kendaraan.xlsx
+++ b/assets/file/Template_Inventaris_Kendaraan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukman\Desktop\WA BLAST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\wa_blast\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F23D49-BD0D-4D97-A6F2-B735BC90D29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAECBEF-54EF-4F2D-87D5-E1340F137F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="3144" windowWidth="15336" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>JENIS KENDARAAN</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>NO TELEPON</t>
+  </si>
+  <si>
+    <t>BAGIAN</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,19 +469,19 @@
     <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -492,30 +495,33 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
